--- a/tests/test1/d10/ЛМ, 0.1.xlsx
+++ b/tests/test1/d10/ЛМ, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,28 +609,28 @@
         <v>15.80711097780685</v>
       </c>
       <c r="O2" t="n">
-        <v>70.58366946316758</v>
+        <v>70.5836694631676</v>
       </c>
       <c r="P2" t="n">
         <v>15.86351711824204</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00283361516798933</v>
+        <v>0.002833615167989189</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04066377993266437</v>
+        <v>0.04066377993265873</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06432829692502416</v>
+        <v>0.06432829692501539</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01529253197327462</v>
+        <v>0.01529253197327275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009990089654112556</v>
+        <v>0.009990089654112579</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02288186025898959</v>
+        <v>0.02288186025899556</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.006471399999995242</v>
+        <v>0.00357779999999952</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,7 +664,7 @@
         <v>0.005451842523313733</v>
       </c>
       <c r="F3" t="n">
-        <v>9.965461741347106</v>
+        <v>9.965461741347104</v>
       </c>
       <c r="G3" t="n">
         <v>75.02759276808855</v>
@@ -691,28 +691,28 @@
         <v>18.32782196423818</v>
       </c>
       <c r="O3" t="n">
-        <v>53.15729242622644</v>
+        <v>53.15729242622643</v>
       </c>
       <c r="P3" t="n">
         <v>18.24654998125369</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002808344072644733</v>
+        <v>0.002808344072644852</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03130219387123536</v>
+        <v>0.03130219387123812</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0502021525251832</v>
+        <v>0.05020215252518808</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01158392872212856</v>
+        <v>0.01158392872212909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009941023544324168</v>
+        <v>0.00994102354432423</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02541857915176573</v>
+        <v>0.02541857915176644</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002835300000000984</v>
+        <v>0.002324400000000004</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -779,22 +779,22 @@
         <v>9.600323291964518</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00229356398390191</v>
+        <v>0.002293563983901925</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01417045740060994</v>
+        <v>0.01417045740060989</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01317984308718062</v>
+        <v>0.01317984308718051</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01299946073658497</v>
+        <v>0.01299946073658513</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01054791445473448</v>
+        <v>0.01054791445473449</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0232550316689852</v>
+        <v>0.02325503166898487</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.001978100000002314</v>
+        <v>0.001796099999999967</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -855,28 +855,28 @@
         <v>15.67687823027242</v>
       </c>
       <c r="O5" t="n">
-        <v>70.659975634501</v>
+        <v>70.65997563450101</v>
       </c>
       <c r="P5" t="n">
         <v>15.62800439848659</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002796278347394983</v>
+        <v>0.002796278347394881</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04008888234347046</v>
+        <v>0.04008888234346552</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06297335227159666</v>
+        <v>0.06297335227158911</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01530614961909677</v>
+        <v>0.01530614961909506</v>
       </c>
       <c r="U5" t="n">
         <v>0.01045824116556257</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01543361719491001</v>
+        <v>0.01543361719491097</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004494600000001014</v>
+        <v>0.003608999999999973</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -943,19 +943,19 @@
         <v>4.681853178574333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001031657025724785</v>
+        <v>0.001031657025724789</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0121903702911561</v>
+        <v>0.01219037029115689</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003861350132097032</v>
+        <v>0.003861350132097196</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01487395912991637</v>
+        <v>0.01487395912991733</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009390682515580371</v>
+        <v>0.009390682515580352</v>
       </c>
       <c r="V6" t="n">
         <v>0.01453701971678216</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.007365300000003572</v>
+        <v>0.008467800000000025</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -995,7 +995,7 @@
         <v>10.01720554608328</v>
       </c>
       <c r="G7" t="n">
-        <v>39.98011157262209</v>
+        <v>39.9801115726221</v>
       </c>
       <c r="H7" t="n">
         <v>13.49297186482246</v>
@@ -1025,19 +1025,19 @@
         <v>22.93993753784355</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002939372112938136</v>
+        <v>0.002939372112938233</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02835275681071992</v>
+        <v>0.02835275681072272</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03651467686939362</v>
+        <v>0.03651467686939828</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03645704797675878</v>
+        <v>0.03645704797676254</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009596344994645975</v>
+        <v>0.009596344994645992</v>
       </c>
       <c r="V7" t="n">
         <v>0.0157415975931096</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002413500000002955</v>
+        <v>0.001910300000000476</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>160.5755857144804</v>
       </c>
       <c r="H8" t="n">
-        <v>7.04378458691449</v>
+        <v>7.043784586914488</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>97.60860989602811</v>
       </c>
       <c r="P8" t="n">
-        <v>4.012561818897876</v>
+        <v>4.012561818897875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002628090870939095</v>
+        <v>0.002628090870936763</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04042017060286481</v>
+        <v>0.04042017060281289</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02486568075221096</v>
+        <v>0.02486568075217974</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03634569175701689</v>
+        <v>0.03634569175697018</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009274722146910533</v>
+        <v>0.009274722146910471</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04331447247224161</v>
+        <v>0.04331447247224023</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.007720599999998967</v>
+        <v>0.006747499999999462</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1156,7 +1156,7 @@
         <v>0.01249536439872464</v>
       </c>
       <c r="F9" t="n">
-        <v>9.96061420539429</v>
+        <v>9.960614205394291</v>
       </c>
       <c r="G9" t="n">
         <v>13.68219218732884</v>
@@ -1189,22 +1189,22 @@
         <v>22.16718395732714</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002687828187862239</v>
+        <v>0.002687828187862256</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03144153100756128</v>
+        <v>0.03144153100756113</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01627139488901353</v>
+        <v>0.01627139488901384</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05492539823371322</v>
+        <v>0.05492539823371397</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00949145637726063</v>
+        <v>0.009491456377260633</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02845955026212289</v>
+        <v>0.02845955026212164</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002022299999993038</v>
+        <v>0.001745100000000832</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,7 +1238,7 @@
         <v>359.9977105602617</v>
       </c>
       <c r="F10" t="n">
-        <v>9.988934160013581</v>
+        <v>9.988934160013578</v>
       </c>
       <c r="G10" t="n">
         <v>157.2139364969907</v>
@@ -1271,19 +1271,19 @@
         <v>11.85241387259395</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001297371095036311</v>
+        <v>0.001297371095036299</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01713919767741624</v>
+        <v>0.01713919767741152</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01431060076215177</v>
+        <v>0.01431060076214789</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02753352474432956</v>
+        <v>0.02753352474432195</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0109424729750425</v>
+        <v>0.01094247297504251</v>
       </c>
       <c r="V10" t="n">
         <v>0.005953469441458625</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005008599999996477</v>
+        <v>0.006557100000000204</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1353,19 +1353,19 @@
         <v>18.26621002063927</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002138835214483746</v>
+        <v>0.002138835214483738</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04302516761322251</v>
+        <v>0.04302516761322237</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007961644082672071</v>
+        <v>0.007961644082672022</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06978971477194518</v>
+        <v>0.0697897147719448</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0104705054037134</v>
+        <v>0.01047050540371339</v>
       </c>
       <c r="V11" t="n">
         <v>0.007452704194888546</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001836799999992422</v>
+        <v>0.001417599999999908</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>138.8404128236243</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25017131978813</v>
+        <v>3.250171319788128</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>40.03687513086638</v>
       </c>
       <c r="P12" t="n">
-        <v>5.80818619479058</v>
+        <v>5.808186194790579</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002092576871336086</v>
+        <v>0.002092576871336032</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01107098653209383</v>
+        <v>0.01107098653209397</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01013589201965562</v>
+        <v>0.01013589201965531</v>
       </c>
       <c r="T12" t="n">
-        <v>0.007379727943006436</v>
+        <v>0.007379727943006511</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008897665624174664</v>
+        <v>0.008897665624174657</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003044132696264194</v>
+        <v>0.003044132696263424</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00329569999999535</v>
+        <v>0.002603800000000156</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1490,7 +1490,7 @@
         <v>32.26205279957696</v>
       </c>
       <c r="H13" t="n">
-        <v>3.222097240358344</v>
+        <v>3.222097240358342</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>11.1032732490996</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002194005049151574</v>
+        <v>0.002194005049151589</v>
       </c>
       <c r="R13" t="n">
         <v>0.01648293786364746</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009555548148183764</v>
+        <v>0.009555548148183865</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02446914058212216</v>
+        <v>0.02446914058212229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009625871873112172</v>
+        <v>0.009625871873112212</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02694117988343166</v>
+        <v>0.02694117988343269</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002025199999991401</v>
+        <v>0.001880700000000068</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1599,22 +1599,22 @@
         <v>21.5639234039193</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002823921330378678</v>
+        <v>0.002823921330378648</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02631897174386806</v>
+        <v>0.02631897174386796</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02424456652592131</v>
+        <v>0.02424456652592092</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04019658100465975</v>
+        <v>0.04019658100465901</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01007241984298789</v>
+        <v>0.01007241984298785</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02289710880168339</v>
+        <v>0.02289710880168301</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002179299999994555</v>
+        <v>0.001588100000000203</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1678,25 +1678,25 @@
         <v>70.56866760849371</v>
       </c>
       <c r="P15" t="n">
-        <v>6.038728452288016</v>
+        <v>6.038728452288015</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002383428587160233</v>
+        <v>0.002383428587160143</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02248009306847104</v>
+        <v>0.02248009306846912</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0200765039105543</v>
+        <v>0.02007650391055276</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01342413787689226</v>
+        <v>0.0134241378768911</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008771371411711335</v>
+        <v>0.008771371411711327</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01101770811052281</v>
+        <v>0.01101770811052256</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.004779200000001538</v>
+        <v>0.005819500000000311</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1730,13 +1730,13 @@
         <v>0.01785505152862753</v>
       </c>
       <c r="F16" t="n">
-        <v>9.977784364118415</v>
+        <v>9.977784364118413</v>
       </c>
       <c r="G16" t="n">
         <v>92.47660339010636</v>
       </c>
       <c r="H16" t="n">
-        <v>12.24781228681114</v>
+        <v>12.24781228681113</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>67.01426695593072</v>
       </c>
       <c r="P16" t="n">
-        <v>17.22482478135006</v>
+        <v>17.22482478135005</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002833610078401145</v>
+        <v>0.002833610078401306</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03958147434080439</v>
+        <v>0.03958147434081063</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06614464336019847</v>
+        <v>0.0661446433602088</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01051976523572131</v>
+        <v>0.01051976523572241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01038021459110678</v>
+        <v>0.01038021459110681</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01166701006795736</v>
+        <v>0.01166701006795913</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004290999999994938</v>
+        <v>0.003622100000000295</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1818,7 +1818,7 @@
         <v>152.8075228740969</v>
       </c>
       <c r="H17" t="n">
-        <v>5.142727031674865</v>
+        <v>5.142727031674867</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>4.419793767587765</v>
       </c>
       <c r="O17" t="n">
-        <v>64.66556544771215</v>
+        <v>64.66556544771217</v>
       </c>
       <c r="P17" t="n">
-        <v>4.416186824502855</v>
+        <v>4.416186824502854</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.002230562116254804</v>
+        <v>0.002230562116254525</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01674586741912663</v>
+        <v>0.01674586741912149</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01376870561147869</v>
+        <v>0.013768705611475</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00935860677293881</v>
+        <v>0.009358606772936056</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01001657947504777</v>
+        <v>0.0100165794750478</v>
       </c>
       <c r="V17" t="n">
-        <v>0.004150816942849364</v>
+        <v>0.004150816942841732</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00459589999999821</v>
+        <v>0.006069700000000289</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1894,10 +1894,10 @@
         <v>0.00983512243324732</v>
       </c>
       <c r="F18" t="n">
-        <v>9.959201841561725</v>
+        <v>9.959201841561727</v>
       </c>
       <c r="G18" t="n">
-        <v>40.15934488595892</v>
+        <v>40.15934488595893</v>
       </c>
       <c r="H18" t="n">
         <v>9.206874957951008</v>
@@ -1927,22 +1927,22 @@
         <v>17.83423226050144</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002696006113625468</v>
+        <v>0.002696006113625425</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02237806954694994</v>
+        <v>0.02237806954695053</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02375453376112993</v>
+        <v>0.02375453376113012</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02694660933468638</v>
+        <v>0.02694660933468594</v>
       </c>
       <c r="U18" t="n">
-        <v>0.008511349697683227</v>
+        <v>0.008511349697683183</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0341699754671691</v>
+        <v>0.03416997546716806</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002537400000008461</v>
+        <v>0.001854800000000267</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -1979,10 +1979,10 @@
         <v>9.986308219941106</v>
       </c>
       <c r="G19" t="n">
-        <v>52.97384566547883</v>
+        <v>52.97384566547884</v>
       </c>
       <c r="H19" t="n">
-        <v>9.377815613555331</v>
+        <v>9.377815613555333</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>35.66402794353121</v>
       </c>
       <c r="P19" t="n">
-        <v>17.41215362326661</v>
+        <v>17.41215362326662</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002725533634743364</v>
+        <v>0.002725533634743388</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02348343544770164</v>
+        <v>0.0234834354477013</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02936898023407307</v>
+        <v>0.02936898023407269</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02109610621843071</v>
+        <v>0.02109610621843079</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01030817012813227</v>
+        <v>0.01030817012813229</v>
       </c>
       <c r="V19" t="n">
-        <v>0.007185201128004941</v>
+        <v>0.007185201128005756</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002495400000000814</v>
+        <v>0.001831600000000044</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>117.039424102008</v>
       </c>
       <c r="H20" t="n">
-        <v>9.132350058119712</v>
+        <v>9.132350058119711</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>11.19595412661585</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.00271319771933217</v>
+        <v>0.002713197719332519</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03810294825856862</v>
+        <v>0.0381029482585796</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0471373205415769</v>
+        <v>0.04713732054159</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02342561919750685</v>
+        <v>0.02342561919751357</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01022540202524797</v>
+        <v>0.01022540202524799</v>
       </c>
       <c r="V20" t="n">
-        <v>0.03421488459981362</v>
+        <v>0.03421488459981259</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004911300000003394</v>
+        <v>0.004344300000000523</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2170,25 +2170,25 @@
         <v>14.65982980366344</v>
       </c>
       <c r="P21" t="n">
-        <v>21.99290715299903</v>
+        <v>21.99290715299902</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002740665832168653</v>
+        <v>0.002740665832168663</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02900727569863354</v>
+        <v>0.02900727569863356</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01844072617967765</v>
+        <v>0.01844072617967763</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04960085034543952</v>
+        <v>0.0496008503454398</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009646582421099278</v>
+        <v>0.009646582421099248</v>
       </c>
       <c r="V21" t="n">
-        <v>0.006018258767446966</v>
+        <v>0.006018258767445696</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002042700000004061</v>
+        <v>0.001728799999999531</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.01480762593976342</v>
       </c>
       <c r="F22" t="n">
-        <v>9.954026014282055</v>
+        <v>9.954026014282048</v>
       </c>
       <c r="G22" t="n">
         <v>105.8544087692936</v>
       </c>
       <c r="H22" t="n">
-        <v>13.68399773386086</v>
+        <v>13.68399773386084</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>80.46079209215509</v>
       </c>
       <c r="P22" t="n">
-        <v>17.20709273645841</v>
+        <v>17.2070927364584</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002926589303016854</v>
+        <v>0.00292658930301649</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05338456133483137</v>
+        <v>0.0533845613348203</v>
       </c>
       <c r="S22" t="n">
-        <v>0.09192798270226898</v>
+        <v>0.09192798270224942</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03183602034367786</v>
+        <v>0.03183602034367154</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009432591748469058</v>
+        <v>0.009432591748469107</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02774594901226963</v>
+        <v>0.02774594901227358</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004866100000000984</v>
+        <v>0.005818200000000218</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2304,7 +2304,7 @@
         <v>359.9848738464636</v>
       </c>
       <c r="F23" t="n">
-        <v>10.02689114423508</v>
+        <v>10.02689114423509</v>
       </c>
       <c r="G23" t="n">
         <v>8.886959519736926</v>
@@ -2334,25 +2334,25 @@
         <v>8.920495592383414</v>
       </c>
       <c r="P23" t="n">
-        <v>15.32207849159482</v>
+        <v>15.32207849159483</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002227730156513856</v>
+        <v>0.002227730156513859</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02784253352481365</v>
+        <v>0.0278425335248132</v>
       </c>
       <c r="S23" t="n">
-        <v>0.009026566220845885</v>
+        <v>0.009026566220846008</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04553453155503748</v>
+        <v>0.04553453155503727</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01013049642154085</v>
+        <v>0.01013049642154084</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03875724687499342</v>
+        <v>0.03875724687499381</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001807700000000523</v>
+        <v>0.001441099999999196</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2392,7 +2392,7 @@
         <v>37.64598521341375</v>
       </c>
       <c r="H24" t="n">
-        <v>8.770612170005963</v>
+        <v>8.770612170005959</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>25.75245942916026</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49057106382543</v>
+        <v>17.49057106382542</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002682158955400723</v>
+        <v>0.0026821589554007</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02203242439798633</v>
+        <v>0.02203242439798662</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02177966244128659</v>
+        <v>0.0217796624412868</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0277887959071897</v>
+        <v>0.0277887959071896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01102583627860549</v>
+        <v>0.01102583627860551</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01117973304198597</v>
+        <v>0.0111797330419863</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002106099999991784</v>
+        <v>0.001655799999999985</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2501,19 +2501,19 @@
         <v>19.43898165087108</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002956334631191508</v>
+        <v>0.002956334631191571</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04706717584143365</v>
+        <v>0.04706717584143556</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08751987571219369</v>
+        <v>0.08751987571219726</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01364499962238638</v>
+        <v>0.01364499962238682</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009160716034668769</v>
+        <v>0.009160716034668779</v>
       </c>
       <c r="V25" t="n">
         <v>0.01165626678192985</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.009204600000003893</v>
+        <v>0.003931000000000573</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2550,13 +2550,13 @@
         <v>359.9946899007384</v>
       </c>
       <c r="F26" t="n">
-        <v>9.997019132302988</v>
+        <v>9.99701913230299</v>
       </c>
       <c r="G26" t="n">
         <v>172.7963397713755</v>
       </c>
       <c r="H26" t="n">
-        <v>11.39123710957438</v>
+        <v>11.39123710957437</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2580,25 +2580,25 @@
         <v>154.9891927791176</v>
       </c>
       <c r="P26" t="n">
-        <v>6.820502229265339</v>
+        <v>6.820502229265336</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001023607874974208</v>
+        <v>0.001023607874974209</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01095037252833679</v>
+        <v>0.01095037252833752</v>
       </c>
       <c r="S26" t="n">
-        <v>0.004070853298325914</v>
+        <v>0.004070853298326116</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01509680850522334</v>
+        <v>0.01509680850522434</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009737588051829239</v>
+        <v>0.009737588051829209</v>
       </c>
       <c r="V26" t="n">
-        <v>0.001997020095612092</v>
+        <v>0.001997020095613132</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006555599999998662</v>
+        <v>0.004699999999999704</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2632,13 +2632,13 @@
         <v>0.01135192506012868</v>
       </c>
       <c r="F27" t="n">
-        <v>9.988330446428947</v>
+        <v>9.988330446428943</v>
       </c>
       <c r="G27" t="n">
         <v>156.648786941209</v>
       </c>
       <c r="H27" t="n">
-        <v>9.969609124110645</v>
+        <v>9.969609124110642</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>121.4106619992946</v>
       </c>
       <c r="P27" t="n">
-        <v>6.929927841186385</v>
+        <v>6.929927841186381</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.001426179732665961</v>
+        <v>0.001426179732665848</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02753687175318677</v>
+        <v>0.02753687175317392</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01828393665793548</v>
+        <v>0.01828393665792707</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03267652531340658</v>
+        <v>0.03267652531339132</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01069020593137524</v>
+        <v>0.01069020593137521</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01060174012450395</v>
+        <v>0.01060174012450569</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005845399999998335</v>
+        <v>0.004569599999999951</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2717,10 +2717,10 @@
         <v>10.01130780953327</v>
       </c>
       <c r="G28" t="n">
-        <v>55.48774013711486</v>
+        <v>55.48774013711487</v>
       </c>
       <c r="H28" t="n">
-        <v>9.228778508555099</v>
+        <v>9.228778508555097</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2747,22 +2747,22 @@
         <v>17.11393132616898</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.00272091275097732</v>
+        <v>0.002720912750977426</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02357415124037007</v>
+        <v>0.02357415124037134</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02983328612167116</v>
+        <v>0.02983328612167368</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01980626163127035</v>
+        <v>0.01980626163127169</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009600874032552061</v>
+        <v>0.009600874032552085</v>
       </c>
       <c r="V28" t="n">
-        <v>0.005635131908831273</v>
+        <v>0.00563513190883886</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002872299999992833</v>
+        <v>0.002008599999999916</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2799,10 +2799,10 @@
         <v>9.998947088275559</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62583511564756</v>
+        <v>76.62583511564758</v>
       </c>
       <c r="H29" t="n">
-        <v>12.78614380575888</v>
+        <v>12.78614380575887</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>55.81464809268272</v>
       </c>
       <c r="P29" t="n">
-        <v>19.45576525116006</v>
+        <v>19.45576525116005</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002878932457402922</v>
+        <v>0.002878932457403025</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03467619112676612</v>
+        <v>0.03467619112676834</v>
       </c>
       <c r="S29" t="n">
-        <v>0.059279454719025</v>
+        <v>0.05927945471902941</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01123359213614425</v>
+        <v>0.01123359213614475</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01035250387166709</v>
+        <v>0.01035250387166715</v>
       </c>
       <c r="V29" t="n">
-        <v>0.005066248069971047</v>
+        <v>0.0050662480699697</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003045700000001261</v>
+        <v>0.005105400000000593</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2911,19 +2911,19 @@
         <v>9.985782955902568</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002722915775360096</v>
+        <v>0.002722915775359954</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04984765327175831</v>
+        <v>0.049847653271754</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05483953964509633</v>
+        <v>0.05483953964509163</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04396714931352219</v>
+        <v>0.04396714931351837</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009581359866986066</v>
+        <v>0.0095813598669861</v>
       </c>
       <c r="V30" t="n">
         <v>0.01215987921643246</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005110799999997084</v>
+        <v>0.004405699999999513</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2966,7 +2966,7 @@
         <v>155.3685722797114</v>
       </c>
       <c r="H31" t="n">
-        <v>6.456829742657042</v>
+        <v>6.456829742657041</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,28 +2987,28 @@
         <v>4.383667298314077</v>
       </c>
       <c r="O31" t="n">
-        <v>85.08093258579936</v>
+        <v>85.08093258579937</v>
       </c>
       <c r="P31" t="n">
         <v>4.413769345279658</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.00258763593724935</v>
+        <v>0.002587635937248717</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03072694732691432</v>
+        <v>0.0307269473269011</v>
       </c>
       <c r="S31" t="n">
-        <v>0.02199025449692549</v>
+        <v>0.02199025449691663</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02412359628258285</v>
+        <v>0.02412359628257242</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0100577915121872</v>
+        <v>0.01005779151218721</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02916598182183086</v>
+        <v>0.02916598182182306</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.007544200000012324</v>
+        <v>0.007938300000000176</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3042,13 +3042,13 @@
         <v>0.007265786486212142</v>
       </c>
       <c r="F32" t="n">
-        <v>9.979323653952182</v>
+        <v>9.97932365395218</v>
       </c>
       <c r="G32" t="n">
         <v>115.9404996105349</v>
       </c>
       <c r="H32" t="n">
-        <v>7.54495420755749</v>
+        <v>7.544954207557489</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3075,22 +3075,22 @@
         <v>9.915503177857623</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.002547666721424881</v>
+        <v>0.002547666721425107</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02893290563475369</v>
+        <v>0.02893290563476048</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03345579561336908</v>
+        <v>0.03345579561337646</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01461252284402556</v>
+        <v>0.0146125228440289</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009954353369168254</v>
+        <v>0.009954353369168266</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0144426083423522</v>
+        <v>0.01444260834235249</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004769300000006638</v>
+        <v>0.003833499999999823</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3124,13 +3124,13 @@
         <v>0.0162191810219667</v>
       </c>
       <c r="F33" t="n">
-        <v>9.978567780835165</v>
+        <v>9.978567780835162</v>
       </c>
       <c r="G33" t="n">
-        <v>51.43309047003822</v>
+        <v>51.43309047003821</v>
       </c>
       <c r="H33" t="n">
-        <v>14.47292854933085</v>
+        <v>14.47292854933086</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3151,28 +3151,28 @@
         <v>23.45979414801152</v>
       </c>
       <c r="O33" t="n">
-        <v>39.04363931973742</v>
+        <v>39.04363931973743</v>
       </c>
       <c r="P33" t="n">
         <v>23.4200959328203</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.002973087673476389</v>
+        <v>0.002973087673476388</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03124951493596756</v>
+        <v>0.03124951493596907</v>
       </c>
       <c r="S33" t="n">
-        <v>0.04940196590261547</v>
+        <v>0.04940196590261758</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03183855378311021</v>
+        <v>0.03183855378311109</v>
       </c>
       <c r="U33" t="n">
         <v>0.01026046237766644</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01292269429813905</v>
+        <v>0.01292269429813885</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.003164100000006442</v>
+        <v>0.001862999999999282</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>154.5064012664586</v>
       </c>
       <c r="H34" t="n">
-        <v>7.513084058393386</v>
+        <v>7.513084058393387</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>98.11741215351962</v>
       </c>
       <c r="P34" t="n">
-        <v>5.097857544790496</v>
+        <v>5.097857544790497</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.002677495388015265</v>
+        <v>0.002677495388013154</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04448695524683866</v>
+        <v>0.04448695524679138</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03077545235627067</v>
+        <v>0.03077545235623809</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04095801155184753</v>
+        <v>0.04095801155180404</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01008919352015035</v>
+        <v>0.01008919352015033</v>
       </c>
       <c r="V34" t="n">
-        <v>0.02883895490872862</v>
+        <v>0.02883895490872921</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.005804499999996438</v>
+        <v>0.005263099999999632</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3288,13 +3288,13 @@
         <v>0.03104503390632397</v>
       </c>
       <c r="F35" t="n">
-        <v>9.998698007261746</v>
+        <v>9.998698007261748</v>
       </c>
       <c r="G35" t="n">
         <v>44.79820482659145</v>
       </c>
       <c r="H35" t="n">
-        <v>8.344508657885134</v>
+        <v>8.344508657885136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>29.60369920961132</v>
       </c>
       <c r="P35" t="n">
-        <v>16.66290284388381</v>
+        <v>16.66290284388382</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.002661023566301244</v>
+        <v>0.002661023566301237</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02147755259138188</v>
+        <v>0.02147755259138238</v>
       </c>
       <c r="S35" t="n">
-        <v>0.02316481535456744</v>
+        <v>0.02316481535456798</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02358900212279994</v>
+        <v>0.02358900212280006</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009606978040763509</v>
+        <v>0.009606978040763541</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02523527422984954</v>
+        <v>0.02523527422984866</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002360500000008869</v>
+        <v>0.004539900000000152</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3403,19 +3403,19 @@
         <v>22.27838575626137</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.002532404656701171</v>
+        <v>0.002532404656701162</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04003580512121269</v>
+        <v>0.04003580512121235</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01233127910146886</v>
+        <v>0.01233127910146898</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06948661793594942</v>
+        <v>0.06948661793594922</v>
       </c>
       <c r="U36" t="n">
-        <v>0.009552659377158594</v>
+        <v>0.009552659377158608</v>
       </c>
       <c r="V36" t="n">
         <v>0.01671042930437474</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001845600000009995</v>
+        <v>0.001459800000000122</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>82.51978630262619</v>
       </c>
       <c r="H37" t="n">
-        <v>6.711125317328054</v>
+        <v>6.711125317328055</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>12.44155687331505</v>
       </c>
       <c r="O37" t="n">
-        <v>47.3117008589415</v>
+        <v>47.31170085894149</v>
       </c>
       <c r="P37" t="n">
         <v>12.45340673504642</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.002544966012489291</v>
+        <v>0.002544966012489268</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02133133000709833</v>
+        <v>0.02133133000709804</v>
       </c>
       <c r="S37" t="n">
-        <v>0.02592286254843957</v>
+        <v>0.02592286254843917</v>
       </c>
       <c r="T37" t="n">
-        <v>0.009056511665956529</v>
+        <v>0.009056511665956449</v>
       </c>
       <c r="U37" t="n">
         <v>0.01043432167320166</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01458081519429278</v>
+        <v>0.01458081519429368</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002954099999996629</v>
+        <v>0.002256299999999989</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3534,13 +3534,13 @@
         <v>0.02348917303014217</v>
       </c>
       <c r="F38" t="n">
-        <v>9.903653772314755</v>
+        <v>9.903653772314751</v>
       </c>
       <c r="G38" t="n">
         <v>131.1648544244474</v>
       </c>
       <c r="H38" t="n">
-        <v>10.07985133795653</v>
+        <v>10.07985133795652</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>93.75387108051189</v>
       </c>
       <c r="P38" t="n">
-        <v>10.30258050303474</v>
+        <v>10.30258050303473</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.002634983172713166</v>
+        <v>0.002634983172710862</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05047914519979017</v>
+        <v>0.0504791451997132</v>
       </c>
       <c r="S38" t="n">
-        <v>0.05692724623268271</v>
+        <v>0.05692724623259658</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04629678780674228</v>
+        <v>0.04629678780667174</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01101026652096783</v>
+        <v>0.01101026652096788</v>
       </c>
       <c r="V38" t="n">
-        <v>0.05544544962023832</v>
+        <v>0.05544544962024048</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005729399999992779</v>
+        <v>0.004901600000000172</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3616,13 +3616,13 @@
         <v>0.004442596329188747</v>
       </c>
       <c r="F39" t="n">
-        <v>9.981030620554106</v>
+        <v>9.98103062055411</v>
       </c>
       <c r="G39" t="n">
         <v>170.0394887138408</v>
       </c>
       <c r="H39" t="n">
-        <v>8.54679226691808</v>
+        <v>8.546792266918086</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>132.900194822562</v>
       </c>
       <c r="P39" t="n">
-        <v>4.020566720397416</v>
+        <v>4.02056672039742</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.00112957122980962</v>
+        <v>0.001129571229809604</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01791707809563573</v>
+        <v>0.01791707809562727</v>
       </c>
       <c r="S39" t="n">
-        <v>0.007105755223184878</v>
+        <v>0.007105755223181686</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02011741807174333</v>
+        <v>0.02011741807173384</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009694483235038322</v>
+        <v>0.009694483235038283</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01709015969450291</v>
+        <v>0.01709015969449953</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005508699999992928</v>
+        <v>0.005877100000000191</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3725,28 +3725,28 @@
         <v>20.73148308181667</v>
       </c>
       <c r="O40" t="n">
-        <v>51.02391447006282</v>
+        <v>51.02391447006281</v>
       </c>
       <c r="P40" t="n">
         <v>20.78762337120032</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.002919893898177552</v>
+        <v>0.002919893898177599</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03373142215539505</v>
+        <v>0.03373142215539651</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05774073503803402</v>
+        <v>0.05774073503803691</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0170202770918574</v>
+        <v>0.01702027709185807</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01062382994629822</v>
+        <v>0.01062382994629821</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01555271950530791</v>
+        <v>0.0155527195053092</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004662100000004443</v>
+        <v>0.002535000000000842</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3780,7 +3780,7 @@
         <v>359.9959519032198</v>
       </c>
       <c r="F41" t="n">
-        <v>10.00006487966565</v>
+        <v>10.00006487966564</v>
       </c>
       <c r="G41" t="n">
         <v>98.43535904255153</v>
@@ -3810,25 +3810,25 @@
         <v>72.19969231587253</v>
       </c>
       <c r="P41" t="n">
-        <v>16.91025402641526</v>
+        <v>16.91025402641525</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.002875479077339481</v>
+        <v>0.002875479077339167</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04408534999019312</v>
+        <v>0.0440853499901805</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07367080752626363</v>
+        <v>0.07367080752624298</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01710270318279951</v>
+        <v>0.01710270318279491</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01045881914404835</v>
+        <v>0.01045881914404834</v>
       </c>
       <c r="V41" t="n">
-        <v>0.001773378451291882</v>
+        <v>0.001773378451289419</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004207000000008065</v>
+        <v>0.003441200000000144</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3865,10 +3865,10 @@
         <v>10.00874908867678</v>
       </c>
       <c r="G42" t="n">
-        <v>73.21737017464945</v>
+        <v>73.21737017464943</v>
       </c>
       <c r="H42" t="n">
-        <v>3.682084849060429</v>
+        <v>3.68208484906043</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>31.92108876571551</v>
       </c>
       <c r="P42" t="n">
-        <v>10.21256508150977</v>
+        <v>10.21256508150978</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.002334342605664473</v>
+        <v>0.002334342605664499</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0148661204216627</v>
+        <v>0.01486612042166276</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01409673578518377</v>
+        <v>0.01409673578518388</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01353687115809808</v>
+        <v>0.01353687115809822</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009686893748140569</v>
+        <v>0.009686893748140564</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02265416554000114</v>
+        <v>0.02265416554000304</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.003924200000000155</v>
+        <v>0.001746899999999663</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.02576580983591986</v>
       </c>
       <c r="F43" t="n">
-        <v>9.995411992374128</v>
+        <v>9.99541199237413</v>
       </c>
       <c r="G43" t="n">
-        <v>45.34581093145586</v>
+        <v>45.34581093145588</v>
       </c>
       <c r="H43" t="n">
-        <v>3.510063769309672</v>
+        <v>3.51006376930967</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>11.14911285387713</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.002287321964246483</v>
+        <v>0.002287321964246492</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01546203891741162</v>
+        <v>0.01546203891741182</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01150193740746144</v>
+        <v>0.01150193740746135</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02046692505221411</v>
+        <v>0.02046692505221442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01001356302013176</v>
+        <v>0.01001356302013181</v>
       </c>
       <c r="V43" t="n">
-        <v>0.04604206981563874</v>
+        <v>0.04604206981564096</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002024700000006874</v>
+        <v>0.001690900000000717</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.02256287096614933</v>
       </c>
       <c r="F44" t="n">
-        <v>10.01099873397279</v>
+        <v>10.01099873397278</v>
       </c>
       <c r="G44" t="n">
         <v>67.47122833183198</v>
       </c>
       <c r="H44" t="n">
-        <v>14.3921850608559</v>
+        <v>14.39218506085589</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         <v>22.14193003827787</v>
       </c>
       <c r="O44" t="n">
-        <v>50.71302338852692</v>
+        <v>50.71302338852691</v>
       </c>
       <c r="P44" t="n">
-        <v>22.12842426715059</v>
+        <v>22.12842426715058</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.002955673427157327</v>
+        <v>0.002955673427157287</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0352723540951494</v>
+        <v>0.03527235409514513</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06298219010313888</v>
+        <v>0.06298219010313186</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01992299356687727</v>
+        <v>0.01992299356687618</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009376926692339449</v>
+        <v>0.009376926692339433</v>
       </c>
       <c r="V44" t="n">
-        <v>0.007747261085042141</v>
+        <v>0.007747261085045059</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003877599999995596</v>
+        <v>0.002227800000000002</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4108,7 +4108,7 @@
         <v>359.9922987353385</v>
       </c>
       <c r="F45" t="n">
-        <v>9.977527673185209</v>
+        <v>9.977527673185206</v>
       </c>
       <c r="G45" t="n">
         <v>20.65722653146607</v>
@@ -4141,22 +4141,22 @@
         <v>19.75242333037423</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.002665446518145305</v>
+        <v>0.002665446518145296</v>
       </c>
       <c r="R45" t="n">
         <v>0.02566238229398846</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01747056064633992</v>
+        <v>0.01747056064633975</v>
       </c>
       <c r="T45" t="n">
-        <v>0.041809851528482</v>
+        <v>0.04180985152848166</v>
       </c>
       <c r="U45" t="n">
         <v>0.009780993403180846</v>
       </c>
       <c r="V45" t="n">
-        <v>0.009717303077039406</v>
+        <v>0.009717303077040568</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002167499999998768</v>
+        <v>0.001795900000000294</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4196,7 +4196,7 @@
         <v>150.2661370043455</v>
       </c>
       <c r="H46" t="n">
-        <v>4.273394727914429</v>
+        <v>4.27339472791443</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4217,28 +4217,28 @@
         <v>4.733318900759217</v>
       </c>
       <c r="O46" t="n">
-        <v>51.51154991004719</v>
+        <v>51.5115499100472</v>
       </c>
       <c r="P46" t="n">
         <v>4.745712443787343</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.00211867918362956</v>
+        <v>0.002118679183629442</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01248642964076091</v>
+        <v>0.01248642964075996</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0110754552117173</v>
+        <v>0.01107545521171629</v>
       </c>
       <c r="T46" t="n">
-        <v>0.006059933469254168</v>
+        <v>0.006059933469254049</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009980575941988399</v>
+        <v>0.009980575941988448</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01838785222974709</v>
+        <v>0.01838785222975472</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004444100000000617</v>
+        <v>0.003148200000000045</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>178.0205040915112</v>
       </c>
       <c r="H47" t="n">
-        <v>9.592752821295035</v>
+        <v>9.592752821295033</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>159.1841060455741</v>
       </c>
       <c r="P47" t="n">
-        <v>4.410751458195934</v>
+        <v>4.410751458195931</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0009797918937710702</v>
+        <v>0.0009797918937710845</v>
       </c>
       <c r="R47" t="n">
-        <v>0.009739571734849623</v>
+        <v>0.009739571734851647</v>
       </c>
       <c r="S47" t="n">
-        <v>0.002425967894445919</v>
+        <v>0.002425967894446229</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01191325853491641</v>
+        <v>0.01191325853491888</v>
       </c>
       <c r="U47" t="n">
-        <v>0.009442072980139115</v>
+        <v>0.009442072980139139</v>
       </c>
       <c r="V47" t="n">
-        <v>0.001701664761972245</v>
+        <v>0.001701664761973715</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00584779999999796</v>
+        <v>0.006261799999999873</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4354,7 +4354,7 @@
         <v>0.0105705324154024</v>
       </c>
       <c r="F48" t="n">
-        <v>9.96250372541599</v>
+        <v>9.962503725415988</v>
       </c>
       <c r="G48" t="n">
         <v>141.1186597837008</v>
@@ -4384,25 +4384,25 @@
         <v>105.4324608119058</v>
       </c>
       <c r="P48" t="n">
-        <v>9.469191558689067</v>
+        <v>9.469191558689063</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.002113505637646599</v>
+        <v>0.002113505637645404</v>
       </c>
       <c r="R48" t="n">
-        <v>0.04483207788808419</v>
+        <v>0.04483207788802987</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04400218279687504</v>
+        <v>0.04400218279682203</v>
       </c>
       <c r="T48" t="n">
-        <v>0.04873460850571065</v>
+        <v>0.0487346085056516</v>
       </c>
       <c r="U48" t="n">
         <v>0.01029449067427428</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02425821295638105</v>
+        <v>0.02425821295638251</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007585100000000011</v>
+        <v>0.004920900000000117</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4466,25 +4466,25 @@
         <v>17.03074542356919</v>
       </c>
       <c r="P49" t="n">
-        <v>24.99351384633719</v>
+        <v>24.9935138463372</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.002915649801121948</v>
+        <v>0.002915649801121981</v>
       </c>
       <c r="R49" t="n">
-        <v>0.03098602238463167</v>
+        <v>0.03098602238463214</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02445745090098539</v>
+        <v>0.02445745090098604</v>
       </c>
       <c r="T49" t="n">
-        <v>0.05388652796949991</v>
+        <v>0.05388652796950115</v>
       </c>
       <c r="U49" t="n">
-        <v>0.00995738956028688</v>
+        <v>0.009957389560286889</v>
       </c>
       <c r="V49" t="n">
-        <v>0.005018992399305524</v>
+        <v>0.005018992399304445</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002089900000001421</v>
+        <v>0.003277699999999939</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,7 +4518,7 @@
         <v>359.9988716690996</v>
       </c>
       <c r="F50" t="n">
-        <v>9.954885133962708</v>
+        <v>9.95488513396271</v>
       </c>
       <c r="G50" t="n">
         <v>3.119191831862758</v>
@@ -4551,22 +4551,22 @@
         <v>23.86883256907923</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.002406742221927027</v>
+        <v>0.00240674222192702</v>
       </c>
       <c r="R50" t="n">
-        <v>0.05287317041601316</v>
+        <v>0.05287317041601308</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01060361421710166</v>
+        <v>0.01060361421710165</v>
       </c>
       <c r="T50" t="n">
-        <v>0.08998484025044637</v>
+        <v>0.08998484025044616</v>
       </c>
       <c r="U50" t="n">
-        <v>0.01018638172882643</v>
+        <v>0.01018638172882645</v>
       </c>
       <c r="V50" t="n">
-        <v>0.009343255635653257</v>
+        <v>0.009343255635653181</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001820800000004397</v>
+        <v>0.001490399999999781</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>9.983187538362145</v>
       </c>
       <c r="G51" t="n">
-        <v>54.08311212491564</v>
+        <v>54.08311212491562</v>
       </c>
       <c r="H51" t="n">
-        <v>5.963341537578603</v>
+        <v>5.963341537578605</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>13.50009927785307</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.002510849523316437</v>
+        <v>0.002510849523316508</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01826835631955635</v>
+        <v>0.01826835631955686</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01870873039705207</v>
+        <v>0.01870873039705311</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01782379782566831</v>
+        <v>0.01782379782566903</v>
       </c>
       <c r="U51" t="n">
-        <v>0.009107068709268602</v>
+        <v>0.009107068709268647</v>
       </c>
       <c r="V51" t="n">
-        <v>0.007583714955228509</v>
+        <v>0.007583714955227546</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002034600000001774</v>
+        <v>0.001680900000000207</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,10 +4685,10 @@
         <v>10.00308174612243</v>
       </c>
       <c r="G52" t="n">
-        <v>88.99218375419687</v>
+        <v>88.99218375419684</v>
       </c>
       <c r="H52" t="n">
-        <v>5.746780972950638</v>
+        <v>5.74678097295064</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4715,22 +4715,22 @@
         <v>11.01869944440184</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.002468571681528683</v>
+        <v>0.00246857168152865</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01941222960019324</v>
+        <v>0.01941222960019223</v>
       </c>
       <c r="S52" t="n">
-        <v>0.02223827315741752</v>
+        <v>0.02223827315741648</v>
       </c>
       <c r="T52" t="n">
-        <v>0.008320296746933317</v>
+        <v>0.00832029674693331</v>
       </c>
       <c r="U52" t="n">
-        <v>0.009802340379786272</v>
+        <v>0.009802340379786263</v>
       </c>
       <c r="V52" t="n">
-        <v>0.009630445177559892</v>
+        <v>0.009630445177562301</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004707600000003254</v>
+        <v>0.004210999999999743</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4767,10 +4767,10 @@
         <v>9.991750283158225</v>
       </c>
       <c r="G53" t="n">
-        <v>121.4389387469601</v>
+        <v>121.43893874696</v>
       </c>
       <c r="H53" t="n">
-        <v>3.531984950337157</v>
+        <v>3.531984950337158</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>42.82433186252011</v>
       </c>
       <c r="P53" t="n">
-        <v>7.041725334464659</v>
+        <v>7.041725334464662</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.002204127819577678</v>
+        <v>0.002204127819577717</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01321207541675255</v>
+        <v>0.01321207541675293</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01271384487845108</v>
+        <v>0.01271384487845148</v>
       </c>
       <c r="T53" t="n">
-        <v>0.007433512493969746</v>
+        <v>0.007433512493969823</v>
       </c>
       <c r="U53" t="n">
-        <v>0.009731678581311824</v>
+        <v>0.009731678581311846</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01485806421922584</v>
+        <v>0.01485806421922757</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003764799999999013</v>
+        <v>0.002832999999999863</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4873,28 +4873,28 @@
         <v>5.169813417634993</v>
       </c>
       <c r="O54" t="n">
-        <v>39.23084114418292</v>
+        <v>39.23084114418293</v>
       </c>
       <c r="P54" t="n">
-        <v>5.19802083721151</v>
+        <v>5.198020837211508</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.002039953611964054</v>
+        <v>0.002039953611964025</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01018267790624203</v>
+        <v>0.01018267790624195</v>
       </c>
       <c r="S54" t="n">
-        <v>0.009138763034642509</v>
+        <v>0.00913876303464234</v>
       </c>
       <c r="T54" t="n">
-        <v>0.007213508140112223</v>
+        <v>0.007213508140112145</v>
       </c>
       <c r="U54" t="n">
-        <v>0.009238682214599947</v>
+        <v>0.009238682214599933</v>
       </c>
       <c r="V54" t="n">
-        <v>0.02970266486929485</v>
+        <v>0.02970266486929427</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.004037999999994213</v>
+        <v>0.002787500000000165</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4928,13 +4928,13 @@
         <v>0.0001987185256795916</v>
       </c>
       <c r="F55" t="n">
-        <v>9.968085217929668</v>
+        <v>9.968085217929664</v>
       </c>
       <c r="G55" t="n">
         <v>152.4156065940006</v>
       </c>
       <c r="H55" t="n">
-        <v>9.692700817133865</v>
+        <v>9.692700817133861</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>114.2787206795301</v>
       </c>
       <c r="P55" t="n">
-        <v>7.192523941208226</v>
+        <v>7.192523941208224</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.001680963907228594</v>
+        <v>0.001680963907228829</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0348505984542167</v>
+        <v>0.03485059845423247</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02580757941326628</v>
+        <v>0.02580757941327774</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03940665475337043</v>
+        <v>0.03940665475338827</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01120865473698043</v>
+        <v>0.0112086547369804</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01964675558070957</v>
+        <v>0.0196467555807111</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005694999999988681</v>
+        <v>0.004895199999999988</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5010,13 +5010,13 @@
         <v>0.02294207235829661</v>
       </c>
       <c r="F56" t="n">
-        <v>9.970054167024061</v>
+        <v>9.97005416702406</v>
       </c>
       <c r="G56" t="n">
         <v>75.65907248285552</v>
       </c>
       <c r="H56" t="n">
-        <v>7.310171159970016</v>
+        <v>7.310171159970013</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>45.4381090841061</v>
       </c>
       <c r="P56" t="n">
-        <v>13.57669850209057</v>
+        <v>13.57669850209056</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.002578880027184012</v>
+        <v>0.002578880027183885</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0219551384366294</v>
+        <v>0.02195513843662713</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02752283634321958</v>
+        <v>0.02752283634321605</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01068458902439338</v>
+        <v>0.01068458902439298</v>
       </c>
       <c r="U56" t="n">
-        <v>0.00983057378085928</v>
+        <v>0.009830573780859274</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02771897314264236</v>
+        <v>0.02771897314264422</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002478799999991566</v>
+        <v>0.001763299999999468</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5122,25 +5122,25 @@
         <v>14.46221327518247</v>
       </c>
       <c r="P57" t="n">
-        <v>25.05808495415101</v>
+        <v>25.05808495415102</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.002873794719851995</v>
+        <v>0.002873794719852018</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03254001139149906</v>
+        <v>0.03254001139149902</v>
       </c>
       <c r="S57" t="n">
-        <v>0.02157133771074496</v>
+        <v>0.02157133771074509</v>
       </c>
       <c r="T57" t="n">
-        <v>0.05799229595896435</v>
+        <v>0.05799229595896502</v>
       </c>
       <c r="U57" t="n">
-        <v>0.009774126433180139</v>
+        <v>0.009774126433180071</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01082647185764929</v>
+        <v>0.01082647185765036</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002032499999998549</v>
+        <v>0.001977400000000351</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5174,13 +5174,13 @@
         <v>0.002469024646784275</v>
       </c>
       <c r="F58" t="n">
-        <v>9.986127102160969</v>
+        <v>9.986127102160971</v>
       </c>
       <c r="G58" t="n">
         <v>177.1922476509271</v>
       </c>
       <c r="H58" t="n">
-        <v>6.987494404872794</v>
+        <v>6.987494404872796</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>122.4370280827008</v>
       </c>
       <c r="P58" t="n">
-        <v>1.874001634144775</v>
+        <v>1.874001634144777</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.001077516324064185</v>
+        <v>0.001077516324064198</v>
       </c>
       <c r="R58" t="n">
-        <v>0.01298240335289614</v>
+        <v>0.01298240335290602</v>
       </c>
       <c r="S58" t="n">
-        <v>0.004153407816138769</v>
+        <v>0.004153407816141453</v>
       </c>
       <c r="T58" t="n">
-        <v>0.0125763312820754</v>
+        <v>0.01257633128208498</v>
       </c>
       <c r="U58" t="n">
-        <v>0.009571042831968664</v>
+        <v>0.009571042831968683</v>
       </c>
       <c r="V58" t="n">
-        <v>0.02241331191919832</v>
+        <v>0.0224133119191958</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.005449799999993843</v>
+        <v>0.004520600000000208</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5256,10 +5256,10 @@
         <v>359.9910260239905</v>
       </c>
       <c r="F59" t="n">
-        <v>9.964725224449056</v>
+        <v>9.964725224449055</v>
       </c>
       <c r="G59" t="n">
-        <v>15.63178229887203</v>
+        <v>15.63178229887202</v>
       </c>
       <c r="H59" t="n">
         <v>5.825030581983617</v>
@@ -5289,22 +5289,22 @@
         <v>14.4069268317789</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.002284710782610856</v>
+        <v>0.002284710782610831</v>
       </c>
       <c r="R59" t="n">
-        <v>0.02266381839698825</v>
+        <v>0.02266381839698815</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0101255845674449</v>
+        <v>0.01012558456744483</v>
       </c>
       <c r="T59" t="n">
-        <v>0.03658384461845408</v>
+        <v>0.03658384461845342</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01090886466943569</v>
+        <v>0.01090886466943566</v>
       </c>
       <c r="V59" t="n">
-        <v>0.03308904289436351</v>
+        <v>0.03308904289436422</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00202659999999355</v>
+        <v>0.001569700000000118</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5344,7 +5344,7 @@
         <v>65.5687444030542</v>
       </c>
       <c r="H60" t="n">
-        <v>8.369300788336098</v>
+        <v>8.369300788336099</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5371,22 +5371,22 @@
         <v>15.43346235729593</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.002649677494255899</v>
+        <v>0.002649677494255966</v>
       </c>
       <c r="R60" t="n">
-        <v>0.02292852826276951</v>
+        <v>0.02292852826276934</v>
       </c>
       <c r="S60" t="n">
-        <v>0.02966477989706683</v>
+        <v>0.02966477989706747</v>
       </c>
       <c r="T60" t="n">
-        <v>0.01449166452686165</v>
+        <v>0.01449166452686215</v>
       </c>
       <c r="U60" t="n">
-        <v>0.009402668381420766</v>
+        <v>0.009402668381420643</v>
       </c>
       <c r="V60" t="n">
-        <v>0.03325886089405838</v>
+        <v>0.03325886089405768</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002353999999996859</v>
+        <v>0.001860900000000498</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>166.4284357503815</v>
       </c>
       <c r="H61" t="n">
-        <v>4.883787571581877</v>
+        <v>4.883787571581876</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5447,28 +5447,28 @@
         <v>3.059300117780022</v>
       </c>
       <c r="O61" t="n">
-        <v>56.73921063191525</v>
+        <v>56.73921063191523</v>
       </c>
       <c r="P61" t="n">
         <v>3.046456122493541</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.002049957491055365</v>
+        <v>0.002049957491055542</v>
       </c>
       <c r="R61" t="n">
-        <v>0.01158090873886149</v>
+        <v>0.01158090873886374</v>
       </c>
       <c r="S61" t="n">
-        <v>0.009363575748175769</v>
+        <v>0.009363575748177377</v>
       </c>
       <c r="T61" t="n">
-        <v>0.006027027761927565</v>
+        <v>0.006027027761928424</v>
       </c>
       <c r="U61" t="n">
-        <v>0.01003985223069449</v>
+        <v>0.01003985223069454</v>
       </c>
       <c r="V61" t="n">
-        <v>0.02121453366955505</v>
+        <v>0.02121453366956261</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004372599999996396</v>
+        <v>0.003694700000000495</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5502,13 +5502,13 @@
         <v>359.9874556329449</v>
       </c>
       <c r="F62" t="n">
-        <v>10.02526388120166</v>
+        <v>10.02526388120165</v>
       </c>
       <c r="G62" t="n">
-        <v>54.22164656084598</v>
+        <v>54.22164656084597</v>
       </c>
       <c r="H62" t="n">
-        <v>5.270537343111437</v>
+        <v>5.270537343111438</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5529,28 +5529,28 @@
         <v>12.72106643331113</v>
       </c>
       <c r="O62" t="n">
-        <v>29.56064510858135</v>
+        <v>29.56064510858136</v>
       </c>
       <c r="P62" t="n">
         <v>12.76865748533299</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.00246912443598983</v>
+        <v>0.002469124435989808</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0173641250916443</v>
+        <v>0.01736412509164419</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01684389796570654</v>
+        <v>0.01684389796570628</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01774723412462356</v>
+        <v>0.01774723412462335</v>
       </c>
       <c r="U62" t="n">
-        <v>0.01071384610705084</v>
+        <v>0.01071384610705082</v>
       </c>
       <c r="V62" t="n">
-        <v>0.02719746492915584</v>
+        <v>0.02719746492915603</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002112900000000195</v>
+        <v>0.003037800000000423</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.3931221628518</v>
       </c>
       <c r="H63" t="n">
-        <v>5.187650967435593</v>
+        <v>5.187650967435594</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,28 +5611,28 @@
         <v>4.894765047516295</v>
       </c>
       <c r="O63" t="n">
-        <v>64.70688520421616</v>
+        <v>64.70688520421618</v>
       </c>
       <c r="P63" t="n">
-        <v>4.904130860912946</v>
+        <v>4.904130860912947</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.00225955401131551</v>
+        <v>0.002259554011315173</v>
       </c>
       <c r="R63" t="n">
-        <v>0.01757129519625439</v>
+        <v>0.01757129519624884</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01488517100336517</v>
+        <v>0.01488517100336081</v>
       </c>
       <c r="T63" t="n">
-        <v>0.009662367563475216</v>
+        <v>0.009662367563472407</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01031213123468867</v>
+        <v>0.01031213123468866</v>
       </c>
       <c r="V63" t="n">
-        <v>0.01434543536131822</v>
+        <v>0.01434543536131938</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.0045537999999965</v>
+        <v>0.004138099999999589</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.100969060791345</v>
       </c>
       <c r="H64" t="n">
-        <v>8.827351838915037</v>
+        <v>8.827351838915044</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>7.290272291728654</v>
       </c>
       <c r="P64" t="n">
-        <v>18.10832877422201</v>
+        <v>18.10832877422202</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.002308964567004197</v>
+        <v>0.002308964567004187</v>
       </c>
       <c r="R64" t="n">
-        <v>0.0350283129126032</v>
+        <v>0.03502831291260339</v>
       </c>
       <c r="S64" t="n">
-        <v>0.009637861581179488</v>
+        <v>0.009637861581179434</v>
       </c>
       <c r="T64" t="n">
-        <v>0.05840514996958455</v>
+        <v>0.05840514996958433</v>
       </c>
       <c r="U64" t="n">
-        <v>0.008937701897006801</v>
+        <v>0.008937701897006788</v>
       </c>
       <c r="V64" t="n">
-        <v>0.01411464527442557</v>
+        <v>0.01411464527442324</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001870800000006057</v>
+        <v>0.001460800000000262</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.73301240991188</v>
       </c>
       <c r="H65" t="n">
-        <v>7.773292817228196</v>
+        <v>7.773292817228195</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5781,22 +5781,22 @@
         <v>11.88802465871312</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.002582745846487224</v>
+        <v>0.002582745846487274</v>
       </c>
       <c r="R65" t="n">
-        <v>0.02653303213403297</v>
+        <v>0.0265330321340356</v>
       </c>
       <c r="S65" t="n">
-        <v>0.03364536316314126</v>
+        <v>0.0336453631631442</v>
       </c>
       <c r="T65" t="n">
-        <v>0.008565913479216607</v>
+        <v>0.008565913479217225</v>
       </c>
       <c r="U65" t="n">
-        <v>0.009593109472649108</v>
+        <v>0.009593109472649089</v>
       </c>
       <c r="V65" t="n">
-        <v>0.009947223474873895</v>
+        <v>0.009947223474873361</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003971899999996253</v>
+        <v>0.003500899999999696</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5830,13 +5830,13 @@
         <v>0.02634991038108393</v>
       </c>
       <c r="F66" t="n">
-        <v>10.00320305050039</v>
+        <v>10.0032030505004</v>
       </c>
       <c r="G66" t="n">
-        <v>68.26360787581518</v>
+        <v>68.2636078758152</v>
       </c>
       <c r="H66" t="n">
-        <v>9.793398926815048</v>
+        <v>9.793398926815053</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>45.84736642100619</v>
       </c>
       <c r="P66" t="n">
-        <v>16.85262089581665</v>
+        <v>16.85262089581666</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.002733716003825018</v>
+        <v>0.002733716003824973</v>
       </c>
       <c r="R66" t="n">
-        <v>0.02621595356181629</v>
+        <v>0.02621595356181477</v>
       </c>
       <c r="S66" t="n">
-        <v>0.03710126509417735</v>
+        <v>0.03710126509417498</v>
       </c>
       <c r="T66" t="n">
-        <v>0.01422393411957478</v>
+        <v>0.0142239341195744</v>
       </c>
       <c r="U66" t="n">
         <v>0.01079829812902727</v>
       </c>
       <c r="V66" t="n">
-        <v>0.004959795408078543</v>
+        <v>0.004959795408076841</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002335199999990323</v>
+        <v>0.00187690000000007</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5909,13 +5909,13 @@
         <v>3.376832634030967</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0135507576515241</v>
+        <v>0.01355075765153682</v>
       </c>
       <c r="F67" t="n">
-        <v>9.996168477404755</v>
+        <v>9.996168477404753</v>
       </c>
       <c r="G67" t="n">
-        <v>39.28415825870582</v>
+        <v>39.28415825870581</v>
       </c>
       <c r="H67" t="n">
         <v>3.376010971946085</v>
@@ -5945,22 +5945,22 @@
         <v>11.16010170548129</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.002251531039709211</v>
+        <v>0.002251531039709224</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01584268390013685</v>
+        <v>0.01584268390013677</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01060423541511622</v>
+        <v>0.01060423541511629</v>
       </c>
       <c r="T67" t="n">
-        <v>0.02231680910435074</v>
+        <v>0.02231680910435094</v>
       </c>
       <c r="U67" t="n">
-        <v>0.009922293577577998</v>
+        <v>0.009922293577577955</v>
       </c>
       <c r="V67" t="n">
-        <v>0.004776992948394674</v>
+        <v>0.00477699294839565</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002012100000001737</v>
+        <v>0.003901299999999885</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.991529697497</v>
       </c>
       <c r="F68" t="n">
-        <v>9.987365578558197</v>
+        <v>9.987365578558199</v>
       </c>
       <c r="G68" t="n">
-        <v>27.76552219178315</v>
+        <v>27.76552219178317</v>
       </c>
       <c r="H68" t="n">
-        <v>4.58703820114406</v>
+        <v>4.587038201144058</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>12.79827103536397</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.002305974337594731</v>
+        <v>0.002305974337594748</v>
       </c>
       <c r="R68" t="n">
-        <v>0.01820976531820987</v>
+        <v>0.01820976531821008</v>
       </c>
       <c r="S68" t="n">
-        <v>0.01105303164588975</v>
+        <v>0.01105303164588973</v>
       </c>
       <c r="T68" t="n">
-        <v>0.02735510197044954</v>
+        <v>0.02735510197044982</v>
       </c>
       <c r="U68" t="n">
-        <v>0.009813237492974594</v>
+        <v>0.009813237492974573</v>
       </c>
       <c r="V68" t="n">
-        <v>0.01632987217643549</v>
+        <v>0.01632987217643669</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.004113699999990672</v>
+        <v>0.00189380000000039</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6109,22 +6109,22 @@
         <v>17.61369438714664</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.002885459361963926</v>
+        <v>0.002885459361963674</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0462771658161139</v>
+        <v>0.04627716581610793</v>
       </c>
       <c r="S69" t="n">
-        <v>0.08040326603341681</v>
+        <v>0.08040326603340553</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01838704426761765</v>
+        <v>0.01838704426761585</v>
       </c>
       <c r="U69" t="n">
-        <v>0.009761036976623125</v>
+        <v>0.009761036976623129</v>
       </c>
       <c r="V69" t="n">
-        <v>0.03249582515515954</v>
+        <v>0.0324958251551602</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004224600000000578</v>
+        <v>0.00342690000000001</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6191,16 +6191,16 @@
         <v>11.11016332416753</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.002289536473349619</v>
+        <v>0.002289536473349564</v>
       </c>
       <c r="R70" t="n">
-        <v>0.01537033471141352</v>
+        <v>0.01537033471141349</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0116333231079908</v>
+        <v>0.01163332310799035</v>
       </c>
       <c r="T70" t="n">
-        <v>0.02006344022786383</v>
+        <v>0.02006344022786317</v>
       </c>
       <c r="U70" t="n">
         <v>0.01006361010068993</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003981700000011301</v>
+        <v>0.001732500000000137</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.02212475032896813</v>
       </c>
       <c r="F71" t="n">
-        <v>9.937496625178918</v>
+        <v>9.937496625178916</v>
       </c>
       <c r="G71" t="n">
-        <v>53.24981272709918</v>
+        <v>53.24981272709917</v>
       </c>
       <c r="H71" t="n">
-        <v>12.60515335689246</v>
+        <v>12.60515335689245</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,34 +6261,34 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="O71" t="n">
-        <v>39.07761770835401</v>
+        <v>39.077617708354</v>
       </c>
       <c r="P71" t="n">
-        <v>21.08939148694251</v>
+        <v>21.0893914869425</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0028746101851367</v>
+        <v>0.002874610185136769</v>
       </c>
       <c r="R71" t="n">
-        <v>0.02846895661457352</v>
+        <v>0.02846895661457419</v>
       </c>
       <c r="S71" t="n">
-        <v>0.04227025003831972</v>
+        <v>0.04227025003832157</v>
       </c>
       <c r="T71" t="n">
-        <v>0.02626267703984114</v>
+        <v>0.02626267703984246</v>
       </c>
       <c r="U71" t="n">
-        <v>0.01045528501123329</v>
+        <v>0.01045528501123328</v>
       </c>
       <c r="V71" t="n">
-        <v>0.03997003874222925</v>
+        <v>0.03997003874222989</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002302299999996649</v>
+        <v>0.001836799999999528</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6352,25 +6352,25 @@
         <v>150.0217741632691</v>
       </c>
       <c r="P72" t="n">
-        <v>9.660723157257847</v>
+        <v>9.660723157257845</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.001105261347898567</v>
+        <v>0.001105261347898566</v>
       </c>
       <c r="R72" t="n">
-        <v>0.01244512098039121</v>
+        <v>0.01244512098039122</v>
       </c>
       <c r="S72" t="n">
-        <v>0.006950737189690726</v>
+        <v>0.00695073718969066</v>
       </c>
       <c r="T72" t="n">
         <v>0.01940574246626432</v>
       </c>
       <c r="U72" t="n">
-        <v>0.01012467171251593</v>
+        <v>0.01012467171251596</v>
       </c>
       <c r="V72" t="n">
-        <v>0.007108420121783189</v>
+        <v>0.007108420121782554</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.007459699999998293</v>
+        <v>0.006186699999999767</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6407,10 +6407,10 @@
         <v>10.01560832725367</v>
       </c>
       <c r="G73" t="n">
-        <v>33.46945583474305</v>
+        <v>33.46945583474304</v>
       </c>
       <c r="H73" t="n">
-        <v>7.616739171357023</v>
+        <v>7.616739171357024</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>16.257453798268</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.002587151944669381</v>
+        <v>0.002587151944669362</v>
       </c>
       <c r="R73" t="n">
-        <v>0.02069295285305921</v>
+        <v>0.02069295285305944</v>
       </c>
       <c r="S73" t="n">
-        <v>0.01774773420268904</v>
+        <v>0.01774773420268909</v>
       </c>
       <c r="T73" t="n">
-        <v>0.02816375159624595</v>
+        <v>0.02816375159624575</v>
       </c>
       <c r="U73" t="n">
-        <v>0.009791939386828756</v>
+        <v>0.009791939386828751</v>
       </c>
       <c r="V73" t="n">
-        <v>0.01065669109895916</v>
+        <v>0.01065669109895858</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002131599999998457</v>
+        <v>0.001661700000000543</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,10 +6486,10 @@
         <v>359.9925381164515</v>
       </c>
       <c r="F74" t="n">
-        <v>9.992152123334034</v>
+        <v>9.992152123334035</v>
       </c>
       <c r="G74" t="n">
-        <v>19.20187500434417</v>
+        <v>19.20187500434415</v>
       </c>
       <c r="H74" t="n">
         <v>11.23803674385698</v>
@@ -6516,25 +6516,25 @@
         <v>15.57200537289259</v>
       </c>
       <c r="P74" t="n">
-        <v>20.87750080612837</v>
+        <v>20.87750080612838</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.002708205254143392</v>
+        <v>0.002708205254143383</v>
       </c>
       <c r="R74" t="n">
         <v>0.02725732407236298</v>
       </c>
       <c r="S74" t="n">
-        <v>0.01808768483447519</v>
+        <v>0.01808768483447491</v>
       </c>
       <c r="T74" t="n">
-        <v>0.04546432194675677</v>
+        <v>0.04546432194675634</v>
       </c>
       <c r="U74" t="n">
-        <v>0.01009248934338681</v>
+        <v>0.0100924893433868</v>
       </c>
       <c r="V74" t="n">
-        <v>0.008085986422122991</v>
+        <v>0.008085986422124665</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003323299999991036</v>
+        <v>0.00157190000000007</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6568,13 +6568,13 @@
         <v>359.9880173362006</v>
       </c>
       <c r="F75" t="n">
-        <v>10.0545130130794</v>
+        <v>10.05451301307939</v>
       </c>
       <c r="G75" t="n">
         <v>115.6934889640654</v>
       </c>
       <c r="H75" t="n">
-        <v>9.540336093944594</v>
+        <v>9.540336093944591</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6595,28 +6595,28 @@
         <v>11.66724248977646</v>
       </c>
       <c r="O75" t="n">
-        <v>77.84044596472427</v>
+        <v>77.84044596472428</v>
       </c>
       <c r="P75" t="n">
         <v>11.74838571498954</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.002734516541970275</v>
+        <v>0.002734516541970675</v>
       </c>
       <c r="R75" t="n">
-        <v>0.03981643303648478</v>
+        <v>0.03981643303649687</v>
       </c>
       <c r="S75" t="n">
-        <v>0.05083494545519819</v>
+        <v>0.05083494545521331</v>
       </c>
       <c r="T75" t="n">
-        <v>0.02449944433019737</v>
+        <v>0.02449944433020474</v>
       </c>
       <c r="U75" t="n">
-        <v>0.009104914826212866</v>
+        <v>0.009104914826212878</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0374618305472922</v>
+        <v>0.03746183054729811</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005046799999988139</v>
+        <v>0.005597899999999711</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6677,28 +6677,28 @@
         <v>21.80818795837916</v>
       </c>
       <c r="O76" t="n">
-        <v>27.32014744514013</v>
+        <v>27.32014744514014</v>
       </c>
       <c r="P76" t="n">
         <v>21.79637384903192</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.002873867433277408</v>
+        <v>0.002873867433277293</v>
       </c>
       <c r="R76" t="n">
-        <v>0.02660847546294526</v>
+        <v>0.02660847546294501</v>
       </c>
       <c r="S76" t="n">
-        <v>0.03068899600242796</v>
+        <v>0.03068899600242599</v>
       </c>
       <c r="T76" t="n">
-        <v>0.03572853181535836</v>
+        <v>0.03572853181535565</v>
       </c>
       <c r="U76" t="n">
-        <v>0.009106072160391845</v>
+        <v>0.009106072160391861</v>
       </c>
       <c r="V76" t="n">
-        <v>0.003301908749434792</v>
+        <v>0.003301908749427687</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002502000000006888</v>
+        <v>0.001841599999999666</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6762,25 +6762,25 @@
         <v>41.25893044949857</v>
       </c>
       <c r="P77" t="n">
-        <v>8.550941522800347</v>
+        <v>8.550941522800345</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.002300956360971008</v>
+        <v>0.002300956360970941</v>
       </c>
       <c r="R77" t="n">
-        <v>0.01477951910148421</v>
+        <v>0.01477951910148427</v>
       </c>
       <c r="S77" t="n">
-        <v>0.01481070796220083</v>
+        <v>0.01481070796220054</v>
       </c>
       <c r="T77" t="n">
-        <v>0.008616375533280885</v>
+        <v>0.008616375533280636</v>
       </c>
       <c r="U77" t="n">
-        <v>0.009588770302305084</v>
+        <v>0.009588770302305106</v>
       </c>
       <c r="V77" t="n">
-        <v>0.03001412853550695</v>
+        <v>0.03001412853550519</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002676499999992643</v>
+        <v>0.002060700000000359</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6844,25 +6844,25 @@
         <v>41.0435863020427</v>
       </c>
       <c r="P78" t="n">
-        <v>21.21837304332182</v>
+        <v>21.21837304332183</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.002903137743084953</v>
+        <v>0.002903137743084819</v>
       </c>
       <c r="R78" t="n">
-        <v>0.02954355617220115</v>
+        <v>0.02954355617219927</v>
       </c>
       <c r="S78" t="n">
-        <v>0.0452281152797135</v>
+        <v>0.0452281152797093</v>
       </c>
       <c r="T78" t="n">
-        <v>0.02519717831847782</v>
+        <v>0.02519717831847549</v>
       </c>
       <c r="U78" t="n">
-        <v>0.009535960647895143</v>
+        <v>0.009535960647895173</v>
       </c>
       <c r="V78" t="n">
-        <v>0.006172280990835702</v>
+        <v>0.006172280990837232</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004282400000008124</v>
+        <v>0.001918100000000145</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>0.002488968729620555</v>
       </c>
       <c r="F79" t="n">
-        <v>9.98027833340065</v>
+        <v>9.980278333400646</v>
       </c>
       <c r="G79" t="n">
         <v>165.4516640057698</v>
@@ -6926,25 +6926,25 @@
         <v>138.9458493058674</v>
       </c>
       <c r="P79" t="n">
-        <v>6.684318911595204</v>
+        <v>6.684318911595202</v>
       </c>
       <c r="Q79" t="n">
         <v>0.001150713586284972</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0161914559922803</v>
+        <v>0.01619145599228031</v>
       </c>
       <c r="S79" t="n">
-        <v>0.008116691308036827</v>
+        <v>0.008116691308036817</v>
       </c>
       <c r="T79" t="n">
         <v>0.02104529447389492</v>
       </c>
       <c r="U79" t="n">
-        <v>0.009957077412361048</v>
+        <v>0.009957077412361031</v>
       </c>
       <c r="V79" t="n">
-        <v>0.01169057354194888</v>
+        <v>0.01169057354195016</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005591700000010746</v>
+        <v>0.004456700000000424</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7011,19 +7011,19 @@
         <v>20.90719391239527</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.00252368060288125</v>
+        <v>0.002523680602881281</v>
       </c>
       <c r="R80" t="n">
-        <v>0.03534772781983031</v>
+        <v>0.03534772781983039</v>
       </c>
       <c r="S80" t="n">
-        <v>0.01247325711026775</v>
+        <v>0.01247325711026798</v>
       </c>
       <c r="T80" t="n">
-        <v>0.06101888647374039</v>
+        <v>0.06101888647374142</v>
       </c>
       <c r="U80" t="n">
-        <v>0.01004119585630546</v>
+        <v>0.01004119585630541</v>
       </c>
       <c r="V80" t="n">
         <v>0.01334709456277264</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001916999999991731</v>
+        <v>0.001830299999999951</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.9718298307913</v>
       </c>
       <c r="F81" t="n">
-        <v>10.00965248736359</v>
+        <v>10.0096524873636</v>
       </c>
       <c r="G81" t="n">
-        <v>90.0393673191389</v>
+        <v>90.03936731913896</v>
       </c>
       <c r="H81" t="n">
-        <v>8.649760633951118</v>
+        <v>8.649760633951123</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7093,22 +7093,22 @@
         <v>13.70576352044158</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002651541804373495</v>
+        <v>0.00265154180437334</v>
       </c>
       <c r="R81" t="n">
-        <v>0.02742108265388996</v>
+        <v>0.02742108265388574</v>
       </c>
       <c r="S81" t="n">
-        <v>0.03744052918976684</v>
+        <v>0.03744052918976119</v>
       </c>
       <c r="T81" t="n">
-        <v>0.007449715183710211</v>
+        <v>0.007449715183710007</v>
       </c>
       <c r="U81" t="n">
-        <v>0.009443145576288756</v>
+        <v>0.009443145576288696</v>
       </c>
       <c r="V81" t="n">
-        <v>0.01855486742228094</v>
+        <v>0.01855486742228193</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003404099999997356</v>
+        <v>0.002920600000000384</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7145,10 +7145,10 @@
         <v>10.03058316640313</v>
       </c>
       <c r="G82" t="n">
-        <v>94.01913368353047</v>
+        <v>94.01913368353043</v>
       </c>
       <c r="H82" t="n">
-        <v>11.42787830140336</v>
+        <v>11.42787830140337</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7175,22 +7175,22 @@
         <v>16.19039179348104</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.002810056820055133</v>
+        <v>0.002810056820055086</v>
       </c>
       <c r="R82" t="n">
-        <v>0.03762183014714793</v>
+        <v>0.0376218301471478</v>
       </c>
       <c r="S82" t="n">
-        <v>0.05965403666401842</v>
+        <v>0.05965403666401787</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01073158281517428</v>
+        <v>0.01073158281517439</v>
       </c>
       <c r="U82" t="n">
-        <v>0.009541527059834961</v>
+        <v>0.009541527059834977</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01945880920573326</v>
+        <v>0.0194588092057337</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.005301799999998025</v>
+        <v>0.003366200000000319</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7251,28 +7251,28 @@
         <v>14.1881020213233</v>
       </c>
       <c r="O83" t="n">
-        <v>38.44079383251948</v>
+        <v>38.44079383251947</v>
       </c>
       <c r="P83" t="n">
         <v>14.20411997121931</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.002594958270734985</v>
+        <v>0.002594958270735017</v>
       </c>
       <c r="R83" t="n">
-        <v>0.02073257951112201</v>
+        <v>0.02073257951112238</v>
       </c>
       <c r="S83" t="n">
-        <v>0.02442877277344085</v>
+        <v>0.02442877277344169</v>
       </c>
       <c r="T83" t="n">
-        <v>0.01476045792721655</v>
+        <v>0.01476045792721678</v>
       </c>
       <c r="U83" t="n">
         <v>0.0101143608042934</v>
       </c>
       <c r="V83" t="n">
-        <v>0.01289659968187269</v>
+        <v>0.01289659968186558</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.00227040000000045</v>
+        <v>0.001894599999999969</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7309,7 +7309,7 @@
         <v>9.992402724177362</v>
       </c>
       <c r="G84" t="n">
-        <v>49.48877706045375</v>
+        <v>49.48877706045374</v>
       </c>
       <c r="H84" t="n">
         <v>10.69721460177866</v>
@@ -7339,22 +7339,22 @@
         <v>19.14022072985082</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.002798161245299917</v>
+        <v>0.002798161245300016</v>
       </c>
       <c r="R84" t="n">
-        <v>0.02518962247564401</v>
+        <v>0.02518962247564621</v>
       </c>
       <c r="S84" t="n">
-        <v>0.03257904874139614</v>
+        <v>0.03257904874139961</v>
       </c>
       <c r="T84" t="n">
-        <v>0.02484144978690617</v>
+        <v>0.02484144978690813</v>
       </c>
       <c r="U84" t="n">
-        <v>0.01077944876471215</v>
+        <v>0.01077944876471211</v>
       </c>
       <c r="V84" t="n">
-        <v>0.01071354928113946</v>
+        <v>0.01071354928114729</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.00238369999999577</v>
+        <v>0.001841999999999899</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>0.002109593950565319</v>
       </c>
       <c r="F85" t="n">
-        <v>9.975001152449341</v>
+        <v>9.975001152449343</v>
       </c>
       <c r="G85" t="n">
-        <v>46.23295418893012</v>
+        <v>46.23295418893011</v>
       </c>
       <c r="H85" t="n">
-        <v>11.1694815179806</v>
+        <v>11.16948151798061</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>33.12208270231559</v>
       </c>
       <c r="P85" t="n">
-        <v>19.85667714400295</v>
+        <v>19.85667714400296</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002816118394104606</v>
+        <v>0.002816118394104547</v>
       </c>
       <c r="R85" t="n">
-        <v>0.02551150600032903</v>
+        <v>0.02551150600032786</v>
       </c>
       <c r="S85" t="n">
-        <v>0.03254726545043963</v>
+        <v>0.03254726545043762</v>
       </c>
       <c r="T85" t="n">
-        <v>0.02739297127374653</v>
+        <v>0.02739297127374522</v>
       </c>
       <c r="U85" t="n">
-        <v>0.009900056100727811</v>
+        <v>0.009900056100727844</v>
       </c>
       <c r="V85" t="n">
-        <v>0.01668725258542578</v>
+        <v>0.01668725258542439</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00236590000000092</v>
+        <v>0.001776399999999789</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.244659896280268</v>
       </c>
       <c r="H86" t="n">
-        <v>7.438446342696182</v>
+        <v>7.438446342696184</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>16.41906356121388</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002282806300556509</v>
+        <v>0.002282806300556507</v>
       </c>
       <c r="R86" t="n">
-        <v>0.0298775527619786</v>
+        <v>0.02987755276197833</v>
       </c>
       <c r="S86" t="n">
-        <v>0.009497940203917594</v>
+        <v>0.0094979402039176</v>
       </c>
       <c r="T86" t="n">
-        <v>0.04937719170102668</v>
+        <v>0.04937719170102641</v>
       </c>
       <c r="U86" t="n">
-        <v>0.01117388439476175</v>
+        <v>0.01117388439476176</v>
       </c>
       <c r="V86" t="n">
-        <v>0.007344346226382675</v>
+        <v>0.007344346226381781</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.004053700000000049</v>
+        <v>0.001512100000000238</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.6570810166562</v>
       </c>
       <c r="H87" t="n">
-        <v>9.131072151097761</v>
+        <v>9.13107215109776</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>11.81175051977503</v>
       </c>
       <c r="O87" t="n">
-        <v>73.5308341997802</v>
+        <v>73.53083419978019</v>
       </c>
       <c r="P87" t="n">
-        <v>11.84030616981141</v>
+        <v>11.8403061698114</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.002678654579016293</v>
+        <v>0.002678654579016784</v>
       </c>
       <c r="R87" t="n">
-        <v>0.03565960928708821</v>
+        <v>0.0356596092870991</v>
       </c>
       <c r="S87" t="n">
-        <v>0.04600157120677209</v>
+        <v>0.04600157120678659</v>
       </c>
       <c r="T87" t="n">
-        <v>0.01884396448878748</v>
+        <v>0.01884396448879279</v>
       </c>
       <c r="U87" t="n">
         <v>0.01020382571084185</v>
       </c>
       <c r="V87" t="n">
-        <v>0.01092591736814598</v>
+        <v>0.0109259173681521</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.004767099999995139</v>
+        <v>0.004083300000000456</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7667,16 +7667,16 @@
         <v>13.636545788021</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002436631003885355</v>
+        <v>0.002436631003885439</v>
       </c>
       <c r="R88" t="n">
-        <v>0.01801427571457235</v>
+        <v>0.01801427571457222</v>
       </c>
       <c r="S88" t="n">
-        <v>0.0141929849027389</v>
+        <v>0.01419298490273962</v>
       </c>
       <c r="T88" t="n">
-        <v>0.02425377054090214</v>
+        <v>0.02425377054090331</v>
       </c>
       <c r="U88" t="n">
         <v>0.0101327950549119</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003240000000005239</v>
+        <v>0.003106199999999504</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.02169110555996947</v>
       </c>
       <c r="F89" t="n">
-        <v>9.891119276267194</v>
+        <v>9.891119276267201</v>
       </c>
       <c r="G89" t="n">
         <v>118.110567415811</v>
       </c>
       <c r="H89" t="n">
-        <v>14.25221066400565</v>
+        <v>14.25221066400566</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>92.75908079931996</v>
       </c>
       <c r="P89" t="n">
-        <v>16.27829255778073</v>
+        <v>16.27829255778074</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.00272668540622403</v>
+        <v>0.002726685406223896</v>
       </c>
       <c r="R89" t="n">
-        <v>0.05802253255117125</v>
+        <v>0.05802253255116866</v>
       </c>
       <c r="S89" t="n">
-        <v>0.09481995457507263</v>
+        <v>0.09481995457506792</v>
       </c>
       <c r="T89" t="n">
-        <v>0.05376558577377916</v>
+        <v>0.05376558577377684</v>
       </c>
       <c r="U89" t="n">
         <v>0.01004005198513472</v>
       </c>
       <c r="V89" t="n">
-        <v>0.05959629392052073</v>
+        <v>0.05959629392051782</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005063300000003323</v>
+        <v>0.004314599999999835</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7798,13 +7798,13 @@
         <v>359.9953837415177</v>
       </c>
       <c r="F90" t="n">
-        <v>10.05057718677097</v>
+        <v>10.05057718677098</v>
       </c>
       <c r="G90" t="n">
         <v>116.5619016171942</v>
       </c>
       <c r="H90" t="n">
-        <v>9.151131101578207</v>
+        <v>9.15113110157821</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>77.06903822480996</v>
       </c>
       <c r="P90" t="n">
-        <v>11.27794292081572</v>
+        <v>11.27794292081573</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.002702097024433426</v>
+        <v>0.002702097024433339</v>
       </c>
       <c r="R90" t="n">
-        <v>0.03801738971759499</v>
+        <v>0.03801738971758988</v>
       </c>
       <c r="S90" t="n">
-        <v>0.04723297933983104</v>
+        <v>0.04723297933982532</v>
       </c>
       <c r="T90" t="n">
-        <v>0.02309888476425373</v>
+        <v>0.0230988847642505</v>
       </c>
       <c r="U90" t="n">
-        <v>0.009962582559837766</v>
+        <v>0.009962582559837752</v>
       </c>
       <c r="V90" t="n">
-        <v>0.02956257662205848</v>
+        <v>0.02956257662205999</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004867300000000796</v>
+        <v>0.005164299999999677</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7886,7 +7886,7 @@
         <v>90.03215884496562</v>
       </c>
       <c r="H91" t="n">
-        <v>6.057515534775889</v>
+        <v>6.057515534775887</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>11.21450181948105</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.00248295704593974</v>
+        <v>0.002482957045939731</v>
       </c>
       <c r="R91" t="n">
-        <v>0.02027081732439593</v>
+        <v>0.0202708173243949</v>
       </c>
       <c r="S91" t="n">
-        <v>0.02367477796090849</v>
+        <v>0.02367477796090742</v>
       </c>
       <c r="T91" t="n">
-        <v>0.007955841644865647</v>
+        <v>0.007955841644865784</v>
       </c>
       <c r="U91" t="n">
-        <v>0.01039595353483448</v>
+        <v>0.01039595353483456</v>
       </c>
       <c r="V91" t="n">
-        <v>0.01139311271889817</v>
+        <v>0.01139311271889917</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002782600000003299</v>
+        <v>0.00254949999999976</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7962,13 +7962,13 @@
         <v>359.9907259813916</v>
       </c>
       <c r="F92" t="n">
-        <v>9.972016241903457</v>
+        <v>9.972016241903455</v>
       </c>
       <c r="G92" t="n">
-        <v>27.40673600596416</v>
+        <v>27.40673600596415</v>
       </c>
       <c r="H92" t="n">
-        <v>4.912025465746664</v>
+        <v>4.912025465746666</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>13.17348958992753</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.002329395988927856</v>
+        <v>0.002329395988927794</v>
       </c>
       <c r="R92" t="n">
-        <v>0.01849955440220115</v>
+        <v>0.0184995544022012</v>
       </c>
       <c r="S92" t="n">
-        <v>0.01146244402957537</v>
+        <v>0.01146244402957498</v>
       </c>
       <c r="T92" t="n">
-        <v>0.02779389350530267</v>
+        <v>0.02779389350530169</v>
       </c>
       <c r="U92" t="n">
-        <v>0.01071369657092549</v>
+        <v>0.01071369657092554</v>
       </c>
       <c r="V92" t="n">
-        <v>0.0176262092823691</v>
+        <v>0.01762620928237071</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002064900000007697</v>
+        <v>0.001600999999999964</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8050,7 +8050,7 @@
         <v>36.16603806374282</v>
       </c>
       <c r="H93" t="n">
-        <v>6.942000605711074</v>
+        <v>6.942000605711073</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>23.3503254700058</v>
       </c>
       <c r="P93" t="n">
-        <v>15.34932835074365</v>
+        <v>15.34932835074364</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.002542954431252684</v>
+        <v>0.00254295443125267</v>
       </c>
       <c r="R93" t="n">
-        <v>0.01964492320111416</v>
+        <v>0.01964492320111432</v>
       </c>
       <c r="S93" t="n">
-        <v>0.01707986344005119</v>
+        <v>0.0170798634400512</v>
       </c>
       <c r="T93" t="n">
-        <v>0.0258015741101711</v>
+        <v>0.02580157411017103</v>
       </c>
       <c r="U93" t="n">
-        <v>0.009406647698178091</v>
+        <v>0.009406647698178075</v>
       </c>
       <c r="V93" t="n">
-        <v>0.005479268544751885</v>
+        <v>0.005479268544752717</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002084199999998759</v>
+        <v>0.003061399999999992</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8156,25 +8156,25 @@
         <v>135.8986507542134</v>
       </c>
       <c r="P94" t="n">
-        <v>9.235167777405417</v>
+        <v>9.235167777405421</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.001253035569864616</v>
+        <v>0.001253035569864618</v>
       </c>
       <c r="R94" t="n">
-        <v>0.0176798486415879</v>
+        <v>0.01767984864158297</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01208969597993971</v>
+        <v>0.01208969597993659</v>
       </c>
       <c r="T94" t="n">
-        <v>0.02520381811660477</v>
+        <v>0.02520381811659777</v>
       </c>
       <c r="U94" t="n">
-        <v>0.008925558301530702</v>
+        <v>0.008925558301530669</v>
       </c>
       <c r="V94" t="n">
-        <v>0.009275878931546491</v>
+        <v>0.00927587893154749</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.006526499999992552</v>
+        <v>0.004399699999999562</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8238,25 +8238,25 @@
         <v>77.09328001306731</v>
       </c>
       <c r="P95" t="n">
-        <v>13.86860186230117</v>
+        <v>13.86860186230116</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.002799570001332917</v>
+        <v>0.002799570001332909</v>
       </c>
       <c r="R95" t="n">
-        <v>0.0431895148637605</v>
+        <v>0.04318951486376164</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0624990543032188</v>
+        <v>0.06249905430322016</v>
       </c>
       <c r="T95" t="n">
-        <v>0.02438095231346675</v>
+        <v>0.02438095231346746</v>
       </c>
       <c r="U95" t="n">
-        <v>0.009017795269557051</v>
+        <v>0.009017795269557052</v>
       </c>
       <c r="V95" t="n">
-        <v>0.001949512257112699</v>
+        <v>0.001949512257111456</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004891200000002982</v>
+        <v>0.005209999999999937</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8323,22 +8323,22 @@
         <v>10.70171891876903</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.002706279504539836</v>
+        <v>0.002706279504540896</v>
       </c>
       <c r="R96" t="n">
-        <v>0.05132693195099614</v>
+        <v>0.05132693195103164</v>
       </c>
       <c r="S96" t="n">
-        <v>0.05937407616487789</v>
+        <v>0.05937407616491846</v>
       </c>
       <c r="T96" t="n">
-        <v>0.04601717455207024</v>
+        <v>0.0460171745521021</v>
       </c>
       <c r="U96" t="n">
-        <v>0.009974847470652245</v>
+        <v>0.009974847470652201</v>
       </c>
       <c r="V96" t="n">
-        <v>0.006181435463863285</v>
+        <v>0.006181435463862853</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005052399999996737</v>
+        <v>0.004507600000000167</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8372,10 +8372,10 @@
         <v>359.9949719940471</v>
       </c>
       <c r="F97" t="n">
-        <v>9.999408570241734</v>
+        <v>9.99940857024173</v>
       </c>
       <c r="G97" t="n">
-        <v>41.16117266685408</v>
+        <v>41.16117266685406</v>
       </c>
       <c r="H97" t="n">
         <v>5.296129160722768</v>
@@ -8399,28 +8399,28 @@
         <v>13.28409758323217</v>
       </c>
       <c r="O97" t="n">
-        <v>23.74449377986233</v>
+        <v>23.74449377986232</v>
       </c>
       <c r="P97" t="n">
-        <v>13.29299531551349</v>
+        <v>13.29299531551348</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.00243886962790631</v>
+        <v>0.00243886962790636</v>
       </c>
       <c r="R97" t="n">
-        <v>0.01754505026582262</v>
+        <v>0.01754505026582243</v>
       </c>
       <c r="S97" t="n">
-        <v>0.01470509165085919</v>
+        <v>0.01470509165085953</v>
       </c>
       <c r="T97" t="n">
-        <v>0.02225748872694668</v>
+        <v>0.02225748872694728</v>
       </c>
       <c r="U97" t="n">
-        <v>0.009439744357627716</v>
+        <v>0.009439744357627688</v>
       </c>
       <c r="V97" t="n">
-        <v>0.005657300478755138</v>
+        <v>0.005657300478755404</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002932400000005941</v>
+        <v>0.001586599999999549</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8451,16 +8451,16 @@
         <v>13.91402845609996</v>
       </c>
       <c r="E98" t="n">
-        <v>0.02555862627298833</v>
+        <v>0.02555862627300105</v>
       </c>
       <c r="F98" t="n">
-        <v>10.00066967836724</v>
+        <v>10.00066967836723</v>
       </c>
       <c r="G98" t="n">
         <v>38.66431375816027</v>
       </c>
       <c r="H98" t="n">
-        <v>13.86038642431951</v>
+        <v>13.8603864243195</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8481,28 +8481,28 @@
         <v>23.48744640074011</v>
       </c>
       <c r="O98" t="n">
-        <v>29.58653235230071</v>
+        <v>29.58653235230072</v>
       </c>
       <c r="P98" t="n">
-        <v>23.42571684200633</v>
+        <v>23.42571684200631</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.002949307702669524</v>
+        <v>0.002949307702669515</v>
       </c>
       <c r="R98" t="n">
-        <v>0.02869527365307739</v>
+        <v>0.02869527365307667</v>
       </c>
       <c r="S98" t="n">
-        <v>0.03672884206226847</v>
+        <v>0.03672884206226765</v>
       </c>
       <c r="T98" t="n">
-        <v>0.03822283970791412</v>
+        <v>0.03822283970791361</v>
       </c>
       <c r="U98" t="n">
-        <v>0.009675895835178135</v>
+        <v>0.009675895835178113</v>
       </c>
       <c r="V98" t="n">
-        <v>0.01493622115215497</v>
+        <v>0.01493622115215661</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002334099999998784</v>
+        <v>0.001959699999999565</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8569,22 +8569,22 @@
         <v>12.64292367118807</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.001453412059575905</v>
+        <v>0.001453412059575931</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0220546654169747</v>
+        <v>0.02205466541698396</v>
       </c>
       <c r="S99" t="n">
-        <v>0.02190612480859309</v>
+        <v>0.02190612480860202</v>
       </c>
       <c r="T99" t="n">
-        <v>0.03393758112295379</v>
+        <v>0.03393758112296804</v>
       </c>
       <c r="U99" t="n">
-        <v>0.009790365635448528</v>
+        <v>0.009790365635448587</v>
       </c>
       <c r="V99" t="n">
-        <v>0.02202625494993816</v>
+        <v>0.02202625494993871</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007041299999997364</v>
+        <v>0.004430000000000156</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8618,7 +8618,7 @@
         <v>0.0219580295808689</v>
       </c>
       <c r="F100" t="n">
-        <v>9.953802332561585</v>
+        <v>9.953802332561583</v>
       </c>
       <c r="G100" t="n">
         <v>131.8470722355594</v>
@@ -8651,19 +8651,19 @@
         <v>9.889425021433411</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.002673042960777076</v>
+        <v>0.002673042960776369</v>
       </c>
       <c r="R100" t="n">
-        <v>0.04971117423303541</v>
+        <v>0.04971117423301592</v>
       </c>
       <c r="S100" t="n">
-        <v>0.05441535880701705</v>
+        <v>0.05441535880699558</v>
       </c>
       <c r="T100" t="n">
-        <v>0.04454183772582462</v>
+        <v>0.04454183772580721</v>
       </c>
       <c r="U100" t="n">
-        <v>0.01095404561321907</v>
+        <v>0.01095404561321912</v>
       </c>
       <c r="V100" t="n">
         <v>0.02914794294527163</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006158800000008569</v>
+        <v>0.006280799999999864</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8706,7 +8706,7 @@
         <v>121.0028124710137</v>
       </c>
       <c r="H101" t="n">
-        <v>8.878559787376904</v>
+        <v>8.878559787376908</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>79.48715478145505</v>
       </c>
       <c r="P101" t="n">
-        <v>10.47687712055831</v>
+        <v>10.47687712055832</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.002690451738378809</v>
+        <v>0.002690451738377794</v>
       </c>
       <c r="R101" t="n">
-        <v>0.03852791205115907</v>
+        <v>0.03852791205112581</v>
       </c>
       <c r="S101" t="n">
-        <v>0.04554085808912924</v>
+        <v>0.04554085808909152</v>
       </c>
       <c r="T101" t="n">
-        <v>0.02556717536332383</v>
+        <v>0.02556717536330164</v>
       </c>
       <c r="U101" t="n">
-        <v>0.00972941069679107</v>
+        <v>0.009729410696791051</v>
       </c>
       <c r="V101" t="n">
-        <v>0.01027431486933946</v>
+        <v>0.01027431486934103</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005060200000002624</v>
+        <v>0.003989599999999704</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
